--- a/po_analysis_by_asin/B07QBQV85H_po_data.xlsx
+++ b/po_analysis_by_asin/B07QBQV85H_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,23 +452,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -476,65 +476,369 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -549,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,25 +875,113 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
         <v>24</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B07QBQV85H_po_data.xlsx
+++ b/po_analysis_by_asin/B07QBQV85H_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -869,7 +870,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -983,6 +984,845 @@
       </c>
       <c r="B15" t="n">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.442673459598333</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.599956146744357</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.686689277164881</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.372356363502315</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3.58013610574377</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.873322667764203</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.303582101595801</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.983861502421952</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.785605845723687</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.41235104584276</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.416734014878271</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.341906270392292</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.512016257575424</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.598810651779669</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.470620411604102</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.82342180556673</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.565957673236944</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.520930386396699</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.451279403988729</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.963569701874232</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.009204542628888</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.88796285733345</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-2.36976616794369</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.752807282883344</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.313984932519999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8.018323317529033</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.908491841243086</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8.034085037361947</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.320025762971188</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8.220321635935113</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.017580395208201</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.973240125657296</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.177603795026601</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.899874928044508</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.78846142933331</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8.170594464881683</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.786930345934127</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8.392276117175113</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.59475170002141</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8.431138202385036</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.63915411773082</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.98869462743138</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.665075313091744</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.567666083890986</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.622707881086851</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.535256768129312</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.782796223807383</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8.650945248539733</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.779858814407107</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8.19721164304179</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.511053253856098</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8.723043854266795</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.178469688128716</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8.652344007460146</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.238768937386436</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8.686143677866097</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.500313257816676</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8.727952421906433</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.164461234354023</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.047705206089661</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1.231066931250805</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9.170208418351082</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.087765484754121</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9.035366845849198</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.6910849894070038</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.670108652132155</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.9307246107891231</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9.205098701960097</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.7266792054768734</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.28928302508019</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.056107527854671</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.203924207587473</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.6094490109051158</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.280681424845165</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.7380868085263023</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.613437106624524</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.4630544303341775</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.64506730409528</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.3830757553183191</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.693707895125025</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.1409226718772111</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.649196446003723</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.1218522458064423</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10.16707553724045</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.645640289575241</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10.24583071021407</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.5798574231254536</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10.21965881972277</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1095868435505733</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10.59138261382986</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.3232713438559027</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10.2133217293707</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.1759572642207735</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10.30703927287995</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.2615145163068194</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10.465682984332</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2224063447920794</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10.37529500316323</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.2466513531635667</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10.55085329556909</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-0.112715425529768</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10.39399992682879</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.6245230644458247</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10.58124242158025</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.022455007565251</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10.94711643217653</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.2285215222913275</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10.69942374476559</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.7086147202289022</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10.67477736308166</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.567851704755615</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10.90447883672405</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.7171206552538226</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10.74181065714667</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B07QBQV85H_po_data.xlsx
+++ b/po_analysis_by_asin/B07QBQV85H_po_data.xlsx
@@ -997,7 +997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,16 +1016,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1034,12 +1024,6 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>-3.442673459598333</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.599956146744357</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1048,12 +1032,6 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>-3.686689277164881</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.372356363502315</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1062,12 +1040,6 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>-3.58013610574377</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.873322667764203</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1076,12 +1048,6 @@
       <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>-3.303582101595801</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.983861502421952</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1090,12 +1056,6 @@
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>-2.785605845723687</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.41235104584276</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1104,12 +1064,6 @@
       <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
-        <v>-3.416734014878271</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.341906270392292</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1118,12 +1072,6 @@
       <c r="B8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
-        <v>-2.512016257575424</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.598810651779669</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1132,12 +1080,6 @@
       <c r="B9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
-        <v>-2.470620411604102</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.82342180556673</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1146,12 +1088,6 @@
       <c r="B10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="n">
-        <v>-2.565957673236944</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7.520930386396699</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1160,12 +1096,6 @@
       <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11" t="n">
-        <v>-2.451279403988729</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7.963569701874232</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1174,12 +1104,6 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
-        <v>-2.009204542628888</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7.88796285733345</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1188,12 +1112,6 @@
       <c r="B13" t="n">
         <v>3</v>
       </c>
-      <c r="C13" t="n">
-        <v>-2.36976616794369</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7.752807282883344</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1202,12 +1120,6 @@
       <c r="B14" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
-        <v>-2.313984932519999</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8.018323317529033</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1216,12 +1128,6 @@
       <c r="B15" t="n">
         <v>3</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1.908491841243086</v>
-      </c>
-      <c r="D15" t="n">
-        <v>8.034085037361947</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1230,12 +1136,6 @@
       <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
-        <v>-2.320025762971188</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8.220321635935113</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1244,12 +1144,6 @@
       <c r="B17" t="n">
         <v>3</v>
       </c>
-      <c r="C17" t="n">
-        <v>-2.017580395208201</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7.973240125657296</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1258,12 +1152,6 @@
       <c r="B18" t="n">
         <v>3</v>
       </c>
-      <c r="C18" t="n">
-        <v>-2.177603795026601</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7.899874928044508</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1272,12 +1160,6 @@
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" t="n">
-        <v>-1.78846142933331</v>
-      </c>
-      <c r="D19" t="n">
-        <v>8.170594464881683</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1286,12 +1168,6 @@
       <c r="B20" t="n">
         <v>3</v>
       </c>
-      <c r="C20" t="n">
-        <v>-1.786930345934127</v>
-      </c>
-      <c r="D20" t="n">
-        <v>8.392276117175113</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1300,12 +1176,6 @@
       <c r="B21" t="n">
         <v>3</v>
       </c>
-      <c r="C21" t="n">
-        <v>-1.59475170002141</v>
-      </c>
-      <c r="D21" t="n">
-        <v>8.431138202385036</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1314,12 +1184,6 @@
       <c r="B22" t="n">
         <v>3</v>
       </c>
-      <c r="C22" t="n">
-        <v>-1.63915411773082</v>
-      </c>
-      <c r="D22" t="n">
-        <v>8.98869462743138</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1328,12 +1192,6 @@
       <c r="B23" t="n">
         <v>3</v>
       </c>
-      <c r="C23" t="n">
-        <v>-1.665075313091744</v>
-      </c>
-      <c r="D23" t="n">
-        <v>8.567666083890986</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1342,12 +1200,6 @@
       <c r="B24" t="n">
         <v>3</v>
       </c>
-      <c r="C24" t="n">
-        <v>-1.622707881086851</v>
-      </c>
-      <c r="D24" t="n">
-        <v>8.535256768129312</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1356,12 +1208,6 @@
       <c r="B25" t="n">
         <v>4</v>
       </c>
-      <c r="C25" t="n">
-        <v>-1.782796223807383</v>
-      </c>
-      <c r="D25" t="n">
-        <v>8.650945248539733</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1370,12 +1216,6 @@
       <c r="B26" t="n">
         <v>4</v>
       </c>
-      <c r="C26" t="n">
-        <v>-1.779858814407107</v>
-      </c>
-      <c r="D26" t="n">
-        <v>8.19721164304179</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1384,12 +1224,6 @@
       <c r="B27" t="n">
         <v>4</v>
       </c>
-      <c r="C27" t="n">
-        <v>-1.511053253856098</v>
-      </c>
-      <c r="D27" t="n">
-        <v>8.723043854266795</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1398,12 +1232,6 @@
       <c r="B28" t="n">
         <v>4</v>
       </c>
-      <c r="C28" t="n">
-        <v>-1.178469688128716</v>
-      </c>
-      <c r="D28" t="n">
-        <v>8.652344007460146</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1412,12 +1240,6 @@
       <c r="B29" t="n">
         <v>4</v>
       </c>
-      <c r="C29" t="n">
-        <v>-1.238768937386436</v>
-      </c>
-      <c r="D29" t="n">
-        <v>8.686143677866097</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1426,12 +1248,6 @@
       <c r="B30" t="n">
         <v>4</v>
       </c>
-      <c r="C30" t="n">
-        <v>-1.500313257816676</v>
-      </c>
-      <c r="D30" t="n">
-        <v>8.727952421906433</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1440,12 +1256,6 @@
       <c r="B31" t="n">
         <v>4</v>
       </c>
-      <c r="C31" t="n">
-        <v>-1.164461234354023</v>
-      </c>
-      <c r="D31" t="n">
-        <v>9.047705206089661</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1454,12 +1264,6 @@
       <c r="B32" t="n">
         <v>4</v>
       </c>
-      <c r="C32" t="n">
-        <v>-1.231066931250805</v>
-      </c>
-      <c r="D32" t="n">
-        <v>9.170208418351082</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1468,12 +1272,6 @@
       <c r="B33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" t="n">
-        <v>-1.087765484754121</v>
-      </c>
-      <c r="D33" t="n">
-        <v>9.035366845849198</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1482,12 +1280,6 @@
       <c r="B34" t="n">
         <v>4</v>
       </c>
-      <c r="C34" t="n">
-        <v>-0.6910849894070038</v>
-      </c>
-      <c r="D34" t="n">
-        <v>9.670108652132155</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1496,12 +1288,6 @@
       <c r="B35" t="n">
         <v>4</v>
       </c>
-      <c r="C35" t="n">
-        <v>-0.9307246107891231</v>
-      </c>
-      <c r="D35" t="n">
-        <v>9.205098701960097</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1510,12 +1296,6 @@
       <c r="B36" t="n">
         <v>4</v>
       </c>
-      <c r="C36" t="n">
-        <v>-0.7266792054768734</v>
-      </c>
-      <c r="D36" t="n">
-        <v>9.28928302508019</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1524,12 +1304,6 @@
       <c r="B37" t="n">
         <v>4</v>
       </c>
-      <c r="C37" t="n">
-        <v>-1.056107527854671</v>
-      </c>
-      <c r="D37" t="n">
-        <v>9.203924207587473</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1538,12 +1312,6 @@
       <c r="B38" t="n">
         <v>4</v>
       </c>
-      <c r="C38" t="n">
-        <v>-0.6094490109051158</v>
-      </c>
-      <c r="D38" t="n">
-        <v>9.280681424845165</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1552,12 +1320,6 @@
       <c r="B39" t="n">
         <v>4</v>
       </c>
-      <c r="C39" t="n">
-        <v>-0.7380868085263023</v>
-      </c>
-      <c r="D39" t="n">
-        <v>9.613437106624524</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1566,12 +1328,6 @@
       <c r="B40" t="n">
         <v>5</v>
       </c>
-      <c r="C40" t="n">
-        <v>-0.4630544303341775</v>
-      </c>
-      <c r="D40" t="n">
-        <v>9.64506730409528</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1580,12 +1336,6 @@
       <c r="B41" t="n">
         <v>5</v>
       </c>
-      <c r="C41" t="n">
-        <v>-0.3830757553183191</v>
-      </c>
-      <c r="D41" t="n">
-        <v>9.693707895125025</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1594,12 +1344,6 @@
       <c r="B42" t="n">
         <v>5</v>
       </c>
-      <c r="C42" t="n">
-        <v>-0.1409226718772111</v>
-      </c>
-      <c r="D42" t="n">
-        <v>9.649196446003723</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1608,12 +1352,6 @@
       <c r="B43" t="n">
         <v>5</v>
       </c>
-      <c r="C43" t="n">
-        <v>-0.1218522458064423</v>
-      </c>
-      <c r="D43" t="n">
-        <v>10.16707553724045</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1622,12 +1360,6 @@
       <c r="B44" t="n">
         <v>5</v>
       </c>
-      <c r="C44" t="n">
-        <v>-0.645640289575241</v>
-      </c>
-      <c r="D44" t="n">
-        <v>10.24583071021407</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1636,12 +1368,6 @@
       <c r="B45" t="n">
         <v>5</v>
       </c>
-      <c r="C45" t="n">
-        <v>-0.5798574231254536</v>
-      </c>
-      <c r="D45" t="n">
-        <v>10.21965881972277</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1650,12 +1376,6 @@
       <c r="B46" t="n">
         <v>5</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.1095868435505733</v>
-      </c>
-      <c r="D46" t="n">
-        <v>10.59138261382986</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1664,12 +1384,6 @@
       <c r="B47" t="n">
         <v>5</v>
       </c>
-      <c r="C47" t="n">
-        <v>-0.3232713438559027</v>
-      </c>
-      <c r="D47" t="n">
-        <v>10.2133217293707</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1678,12 +1392,6 @@
       <c r="B48" t="n">
         <v>5</v>
       </c>
-      <c r="C48" t="n">
-        <v>-0.1759572642207735</v>
-      </c>
-      <c r="D48" t="n">
-        <v>10.30703927287995</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1692,12 +1400,6 @@
       <c r="B49" t="n">
         <v>5</v>
       </c>
-      <c r="C49" t="n">
-        <v>-0.2615145163068194</v>
-      </c>
-      <c r="D49" t="n">
-        <v>10.465682984332</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1706,12 +1408,6 @@
       <c r="B50" t="n">
         <v>5</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.2224063447920794</v>
-      </c>
-      <c r="D50" t="n">
-        <v>10.37529500316323</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1720,12 +1416,6 @@
       <c r="B51" t="n">
         <v>5</v>
       </c>
-      <c r="C51" t="n">
-        <v>0.2466513531635667</v>
-      </c>
-      <c r="D51" t="n">
-        <v>10.55085329556909</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1734,12 +1424,6 @@
       <c r="B52" t="n">
         <v>5</v>
       </c>
-      <c r="C52" t="n">
-        <v>-0.112715425529768</v>
-      </c>
-      <c r="D52" t="n">
-        <v>10.39399992682879</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1748,12 +1432,6 @@
       <c r="B53" t="n">
         <v>5</v>
       </c>
-      <c r="C53" t="n">
-        <v>0.6245230644458247</v>
-      </c>
-      <c r="D53" t="n">
-        <v>10.58124242158025</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1762,12 +1440,6 @@
       <c r="B54" t="n">
         <v>5</v>
       </c>
-      <c r="C54" t="n">
-        <v>1.022455007565251</v>
-      </c>
-      <c r="D54" t="n">
-        <v>10.94711643217653</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1776,12 +1448,6 @@
       <c r="B55" t="n">
         <v>6</v>
       </c>
-      <c r="C55" t="n">
-        <v>0.2285215222913275</v>
-      </c>
-      <c r="D55" t="n">
-        <v>10.69942374476559</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1790,12 +1456,6 @@
       <c r="B56" t="n">
         <v>6</v>
       </c>
-      <c r="C56" t="n">
-        <v>0.7086147202289022</v>
-      </c>
-      <c r="D56" t="n">
-        <v>10.67477736308166</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1804,12 +1464,6 @@
       <c r="B57" t="n">
         <v>6</v>
       </c>
-      <c r="C57" t="n">
-        <v>0.567851704755615</v>
-      </c>
-      <c r="D57" t="n">
-        <v>10.90447883672405</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1817,12 +1471,6 @@
       </c>
       <c r="B58" t="n">
         <v>6</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.7171206552538226</v>
-      </c>
-      <c r="D58" t="n">
-        <v>10.74181065714667</v>
       </c>
     </row>
   </sheetData>
